--- a/network-attack-detection/output/ctu_13/results/agg_results.xlsx
+++ b/network-attack-detection/output/ctu_13/results/agg_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,11 @@
     <sheet name="18-2" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="19" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="summary" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="rpca" sheetId="16" state="visible" r:id="rId17"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">rpca!$A$1:$D$105</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="1548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4180" uniqueCount="1556">
   <si>
     <t xml:space="preserve">Algorithm</t>
   </si>
@@ -4678,6 +4682,30 @@
   </si>
   <si>
     <t xml:space="preserve">Average F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robpca_k2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l-rpca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k-rpca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s-rpca</t>
   </si>
 </sst>
 </file>
@@ -4688,7 +4716,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -4737,7 +4765,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4783,7 +4811,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -4821,7 +4855,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4906,24 +4940,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4984,7 +5026,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -4996,6 +5038,10 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17333,7 +17379,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
     </sheetView>
   </sheetViews>
@@ -17344,8 +17390,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="4" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="10.5"/>
   </cols>
   <sheetData>
@@ -17518,19 +17564,19 @@
       <c r="Q3" s="21" t="n">
         <v>0.517039812015874</v>
       </c>
-      <c r="R3" s="22" t="n">
+      <c r="R3" s="10" t="n">
         <v>0.688</v>
       </c>
-      <c r="S3" s="22" t="n">
+      <c r="S3" s="10" t="n">
         <v>0.666</v>
       </c>
-      <c r="T3" s="22" t="n">
+      <c r="T3" s="10" t="n">
         <v>0.976</v>
       </c>
-      <c r="U3" s="22" t="n">
+      <c r="U3" s="10" t="n">
         <v>0.977</v>
       </c>
-      <c r="V3" s="22" t="n">
+      <c r="V3" s="10" t="n">
         <v>0.921972885032538</v>
       </c>
       <c r="W3" s="10"/>
@@ -17587,19 +17633,19 @@
       <c r="Q4" s="21" t="n">
         <v>0.0493077944244263</v>
       </c>
-      <c r="R4" s="22" t="n">
+      <c r="R4" s="10" t="n">
         <v>0.749</v>
       </c>
-      <c r="S4" s="22" t="n">
+      <c r="S4" s="10" t="n">
         <v>0.707</v>
       </c>
-      <c r="T4" s="22" t="n">
+      <c r="T4" s="10" t="n">
         <v>0.986</v>
       </c>
-      <c r="U4" s="22" t="n">
+      <c r="U4" s="10" t="n">
         <v>0.978</v>
       </c>
-      <c r="V4" s="22" t="n">
+      <c r="V4" s="10" t="n">
         <v>0.685339168490153</v>
       </c>
       <c r="W4" s="10"/>
@@ -17656,19 +17702,19 @@
       <c r="Q5" s="21" t="n">
         <v>0.336531790003296</v>
       </c>
-      <c r="R5" s="22" t="n">
+      <c r="R5" s="10" t="n">
         <v>0.327</v>
       </c>
-      <c r="S5" s="22" t="n">
+      <c r="S5" s="10" t="n">
         <v>0.287</v>
       </c>
-      <c r="T5" s="22" t="n">
+      <c r="T5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="U5" s="22" t="n">
+      <c r="U5" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="V5" s="23" t="n">
+      <c r="V5" s="22" t="n">
         <v>0.964493519958528</v>
       </c>
       <c r="W5" s="10"/>
@@ -17725,19 +17771,19 @@
       <c r="Q6" s="21" t="n">
         <v>0.338178011677295</v>
       </c>
-      <c r="R6" s="22" t="n">
+      <c r="R6" s="10" t="n">
         <v>0.234</v>
       </c>
-      <c r="S6" s="22" t="n">
+      <c r="S6" s="10" t="n">
         <v>0.223</v>
       </c>
-      <c r="T6" s="22" t="n">
+      <c r="T6" s="10" t="n">
         <v>0.857</v>
       </c>
-      <c r="U6" s="22" t="n">
+      <c r="U6" s="10" t="n">
         <v>0.964</v>
       </c>
-      <c r="V6" s="22" t="n">
+      <c r="V6" s="10" t="n">
         <v>0.953308862087048</v>
       </c>
       <c r="W6" s="10"/>
@@ -17794,19 +17840,19 @@
       <c r="Q7" s="21" t="n">
         <v>0.121468926553672</v>
       </c>
-      <c r="R7" s="22" t="n">
+      <c r="R7" s="10" t="n">
         <v>0.507</v>
       </c>
-      <c r="S7" s="22" t="n">
+      <c r="S7" s="10" t="n">
         <v>0.514</v>
       </c>
-      <c r="T7" s="22" t="n">
+      <c r="T7" s="10" t="n">
         <v>0.946</v>
       </c>
-      <c r="U7" s="22" t="n">
+      <c r="U7" s="10" t="n">
         <v>0.945</v>
       </c>
-      <c r="V7" s="22" t="n">
+      <c r="V7" s="10" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="10"/>
@@ -17863,19 +17909,19 @@
       <c r="Q8" s="21" t="n">
         <v>0.550533386466839</v>
       </c>
-      <c r="R8" s="22" t="n">
+      <c r="R8" s="10" t="n">
         <v>0.692</v>
       </c>
-      <c r="S8" s="22" t="n">
+      <c r="S8" s="10" t="n">
         <v>0.709</v>
       </c>
-      <c r="T8" s="22" t="n">
+      <c r="T8" s="10" t="n">
         <v>0.956</v>
       </c>
-      <c r="U8" s="22" t="n">
+      <c r="U8" s="10" t="n">
         <v>0.699</v>
       </c>
-      <c r="V8" s="24" t="n">
+      <c r="V8" s="23" t="n">
         <v>0.956995820271682</v>
       </c>
       <c r="ALO8" s="0"/>
@@ -17953,19 +17999,19 @@
       <c r="Q9" s="21" t="n">
         <v>0.0360685302073941</v>
       </c>
-      <c r="R9" s="22" t="n">
+      <c r="R9" s="10" t="n">
         <v>0.534</v>
       </c>
-      <c r="S9" s="22" t="n">
+      <c r="S9" s="10" t="n">
         <v>0.536</v>
       </c>
-      <c r="T9" s="22" t="n">
+      <c r="T9" s="10" t="n">
         <v>0.014</v>
       </c>
-      <c r="U9" s="22" t="n">
+      <c r="U9" s="10" t="n">
         <v>0.009</v>
       </c>
-      <c r="V9" s="22" t="n">
+      <c r="V9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="ALO9" s="0"/>
@@ -18043,19 +18089,19 @@
       <c r="Q10" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="R10" s="22" t="n">
+      <c r="R10" s="10" t="n">
         <v>0.107</v>
       </c>
-      <c r="S10" s="22" t="n">
+      <c r="S10" s="10" t="n">
         <v>0.118</v>
       </c>
-      <c r="T10" s="22" t="n">
+      <c r="T10" s="10" t="n">
         <v>0.8</v>
       </c>
-      <c r="U10" s="22" t="n">
+      <c r="U10" s="10" t="n">
         <v>0.684</v>
       </c>
-      <c r="V10" s="23" t="n">
+      <c r="V10" s="22" t="n">
         <v>0.93996170212766</v>
       </c>
       <c r="ALO10" s="0"/>
@@ -18133,19 +18179,19 @@
       <c r="Q11" s="21" t="n">
         <v>0.0391615063220045</v>
       </c>
-      <c r="R11" s="22" t="n">
+      <c r="R11" s="10" t="n">
         <v>0.288</v>
       </c>
-      <c r="S11" s="22" t="n">
+      <c r="S11" s="10" t="n">
         <v>0.29</v>
       </c>
-      <c r="T11" s="22" t="n">
+      <c r="T11" s="10" t="n">
         <v>0.009</v>
       </c>
-      <c r="U11" s="22" t="n">
+      <c r="U11" s="10" t="n">
         <v>0.456</v>
       </c>
-      <c r="V11" s="23" t="n">
+      <c r="V11" s="22" t="n">
         <v>0.92249756097561</v>
       </c>
       <c r="ALO11" s="0"/>
@@ -18223,19 +18269,19 @@
       <c r="Q12" s="21" t="n">
         <v>0.527846137716177</v>
       </c>
-      <c r="R12" s="22" t="n">
+      <c r="R12" s="10" t="n">
         <v>0.802</v>
       </c>
-      <c r="S12" s="22" t="n">
+      <c r="S12" s="10" t="n">
         <v>0.782</v>
       </c>
-      <c r="T12" s="22" t="n">
+      <c r="T12" s="10" t="n">
         <v>0.814</v>
       </c>
-      <c r="U12" s="22" t="n">
+      <c r="U12" s="10" t="n">
         <v>0.78</v>
       </c>
-      <c r="V12" s="23" t="n">
+      <c r="V12" s="22" t="n">
         <v>0.997497744360902</v>
       </c>
       <c r="ALO12" s="0"/>
@@ -18313,19 +18359,19 @@
       <c r="Q13" s="21" t="n">
         <v>0.713657678780774</v>
       </c>
-      <c r="R13" s="22" t="n">
+      <c r="R13" s="10" t="n">
         <v>0.787</v>
       </c>
-      <c r="S13" s="22" t="n">
+      <c r="S13" s="10" t="n">
         <v>0.75</v>
       </c>
-      <c r="T13" s="22" t="n">
+      <c r="T13" s="10" t="n">
         <v>0.971</v>
       </c>
-      <c r="U13" s="22" t="n">
+      <c r="U13" s="10" t="n">
         <v>0.983</v>
       </c>
-      <c r="V13" s="23" t="n">
+      <c r="V13" s="22" t="n">
         <v>0.993497735279315</v>
       </c>
       <c r="ALO13" s="0"/>
@@ -18403,19 +18449,19 @@
       <c r="Q14" s="21" t="n">
         <v>0.00554022988505747</v>
       </c>
-      <c r="R14" s="22" t="n">
+      <c r="R14" s="10" t="n">
         <v>0.893</v>
       </c>
-      <c r="S14" s="22" t="n">
+      <c r="S14" s="10" t="n">
         <v>0.898</v>
       </c>
-      <c r="T14" s="22" t="n">
+      <c r="T14" s="10" t="n">
         <v>0.912</v>
       </c>
-      <c r="U14" s="22" t="n">
+      <c r="U14" s="10" t="n">
         <v>0.862</v>
       </c>
-      <c r="V14" s="22" t="n">
+      <c r="V14" s="10" t="n">
         <v>0.516036832412523</v>
       </c>
       <c r="ALO14" s="0"/>
@@ -18493,19 +18539,19 @@
       <c r="Q15" s="21" t="n">
         <v>0.657386348661516</v>
       </c>
-      <c r="R15" s="22" t="n">
+      <c r="R15" s="10" t="n">
         <v>0.493</v>
       </c>
-      <c r="S15" s="22" t="n">
+      <c r="S15" s="10" t="n">
         <v>0.446</v>
       </c>
-      <c r="T15" s="22" t="n">
+      <c r="T15" s="10" t="n">
         <v>0.952</v>
       </c>
-      <c r="U15" s="22" t="n">
+      <c r="U15" s="10" t="n">
         <v>0.945</v>
       </c>
-      <c r="V15" s="22" t="n">
+      <c r="V15" s="10" t="n">
         <v>0.527412523020258</v>
       </c>
       <c r="ALO15" s="0"/>
@@ -18532,84 +18578,84 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>1547</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="22" t="n">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="10" t="n">
         <f aca="false">AVERAGE(D3:D15)</f>
         <v>0.27723462318913</v>
       </c>
-      <c r="E16" s="22" t="n">
+      <c r="E16" s="10" t="n">
         <f aca="false">AVERAGE(E3:E15)</f>
         <v>0.219055198881004</v>
       </c>
-      <c r="F16" s="22" t="n">
+      <c r="F16" s="10" t="n">
         <f aca="false">AVERAGE(F3:F15)</f>
         <v>0.321549655974168</v>
       </c>
-      <c r="G16" s="22" t="n">
+      <c r="G16" s="10" t="n">
         <f aca="false">AVERAGE(G3:G15)</f>
         <v>0.202354847633602</v>
       </c>
-      <c r="H16" s="22" t="n">
+      <c r="H16" s="10" t="n">
         <f aca="false">AVERAGE(H3:H15)</f>
         <v>0.321698439787374</v>
       </c>
-      <c r="I16" s="22" t="n">
+      <c r="I16" s="10" t="n">
         <f aca="false">AVERAGE(I3:I15)</f>
         <v>0.208307730619122</v>
       </c>
-      <c r="J16" s="22" t="n">
+      <c r="J16" s="10" t="n">
         <f aca="false">AVERAGE(J3:J15)</f>
         <v>0.38279855286588</v>
       </c>
-      <c r="K16" s="22" t="n">
+      <c r="K16" s="10" t="n">
         <f aca="false">AVERAGE(K3:K15)</f>
         <v>0.443284776613872</v>
       </c>
-      <c r="L16" s="22" t="n">
+      <c r="L16" s="10" t="n">
         <f aca="false">AVERAGE(L3:L15)</f>
         <v>0.207196209030046</v>
       </c>
-      <c r="M16" s="22" t="n">
+      <c r="M16" s="10" t="n">
         <f aca="false">AVERAGE(M3:M15)</f>
         <v>0.338422725718618</v>
       </c>
-      <c r="N16" s="22" t="n">
+      <c r="N16" s="10" t="n">
         <f aca="false">AVERAGE(N3:N15)</f>
         <v>0.207030014508598</v>
       </c>
-      <c r="O16" s="22" t="n">
+      <c r="O16" s="10" t="n">
         <f aca="false">AVERAGE(O3:O15)</f>
         <v>0.340964139439214</v>
       </c>
-      <c r="P16" s="22" t="n">
+      <c r="P16" s="10" t="n">
         <f aca="false">AVERAGE(P3:P15)</f>
         <v>0.241731301007219</v>
       </c>
-      <c r="Q16" s="22" t="n">
+      <c r="Q16" s="10" t="n">
         <f aca="false">AVERAGE(Q3:Q15)</f>
         <v>0.299440011747256</v>
       </c>
-      <c r="R16" s="22" t="n">
+      <c r="R16" s="10" t="n">
         <f aca="false">AVERAGE(R3:R15)</f>
         <v>0.546230769230769</v>
       </c>
-      <c r="S16" s="22" t="n">
+      <c r="S16" s="10" t="n">
         <f aca="false">AVERAGE(S3:S15)</f>
         <v>0.532769230769231</v>
       </c>
-      <c r="T16" s="22" t="n">
+      <c r="T16" s="10" t="n">
         <f aca="false">AVERAGE(T3:T15)</f>
         <v>0.707153846153846</v>
       </c>
-      <c r="U16" s="22" t="n">
+      <c r="U16" s="10" t="n">
         <f aca="false">AVERAGE(U3:U15)</f>
         <v>0.714</v>
       </c>
-      <c r="V16" s="22" t="n">
+      <c r="V16" s="10" t="n">
         <f aca="false">AVERAGE(V3:V15)</f>
         <v>0.721462642616632</v>
       </c>
@@ -18636,6 +18682,1635 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E105"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.5"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="26" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D2" s="25" t="n">
+        <v>0.289994</v>
+      </c>
+      <c r="E2" s="25" t="n">
+        <f aca="false">AVERAGE(D2:D14)</f>
+        <v>0.195987153846154</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D3" s="25" t="n">
+        <v>0.279282</v>
+      </c>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D4" s="25" t="n">
+        <v>0.087769</v>
+      </c>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D5" s="25" t="n">
+        <v>0.057665</v>
+      </c>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D6" s="25" t="n">
+        <v>0.219754</v>
+      </c>
+      <c r="E6" s="25"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D7" s="25" t="n">
+        <v>0.284866</v>
+      </c>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D8" s="25" t="n">
+        <v>0.067473</v>
+      </c>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D9" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D10" s="25" t="n">
+        <v>0.018232</v>
+      </c>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D11" s="25" t="n">
+        <v>0.721228</v>
+      </c>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D12" s="25" t="n">
+        <v>0.137255</v>
+      </c>
+      <c r="E12" s="25"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D13" s="25" t="n">
+        <v>0.276164</v>
+      </c>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D14" s="25" t="n">
+        <v>0.108151</v>
+      </c>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D15" s="25" t="n">
+        <v>0.34613</v>
+      </c>
+      <c r="E15" s="25" t="n">
+        <f aca="false">AVERAGE(D15:D27)</f>
+        <v>0.234096</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D16" s="25" t="n">
+        <v>0.371508</v>
+      </c>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D17" s="25" t="n">
+        <v>0.113669</v>
+      </c>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D18" s="25" t="n">
+        <v>0.077484</v>
+      </c>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D19" s="25" t="n">
+        <v>0.308176</v>
+      </c>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D20" s="25" t="n">
+        <v>0.386656</v>
+      </c>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D21" s="25" t="n">
+        <v>0.109631</v>
+      </c>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D22" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D23" s="25" t="n">
+        <v>0.039413</v>
+      </c>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D24" s="25" t="n">
+        <v>0.755334</v>
+      </c>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D25" s="25" t="n">
+        <v>0.15737</v>
+      </c>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D26" s="25" t="n">
+        <v>0.24635</v>
+      </c>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D27" s="25" t="n">
+        <v>0.131527</v>
+      </c>
+      <c r="E27" s="25"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D28" s="25" t="n">
+        <v>0.9748</v>
+      </c>
+      <c r="E28" s="25" t="n">
+        <f aca="false">AVERAGE(D28:D40)</f>
+        <v>0.818253846153846</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D29" s="25" t="n">
+        <v>0.9882</v>
+      </c>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D30" s="25" t="n">
+        <v>0.8618</v>
+      </c>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D31" s="25" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D32" s="25" t="n">
+        <v>0.8502</v>
+      </c>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D33" s="25" t="n">
+        <v>0.9594</v>
+      </c>
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D34" s="25" t="n">
+        <v>0.8551</v>
+      </c>
+      <c r="E34" s="25"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D35" s="25" t="n">
+        <v>0.2286</v>
+      </c>
+      <c r="E35" s="25"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D36" s="25" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="E36" s="25"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D37" s="25" t="n">
+        <v>0.8157</v>
+      </c>
+      <c r="E37" s="25"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D38" s="25" t="n">
+        <v>0.9174</v>
+      </c>
+      <c r="E38" s="25"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D39" s="25" t="n">
+        <v>0.807</v>
+      </c>
+      <c r="E39" s="25"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D40" s="25" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="E40" s="25"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D41" s="25" t="n">
+        <v>0.9622</v>
+      </c>
+      <c r="E41" s="25" t="n">
+        <f aca="false">AVERAGE(D41:D53)</f>
+        <v>0.809661538461539</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D42" s="25" t="n">
+        <v>0.9682</v>
+      </c>
+      <c r="E42" s="25"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D43" s="25" t="n">
+        <v>0.8025</v>
+      </c>
+      <c r="E43" s="25"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D44" s="25" t="n">
+        <v>0.7998</v>
+      </c>
+      <c r="E44" s="25"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D45" s="25" t="n">
+        <v>0.8237</v>
+      </c>
+      <c r="E45" s="25"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D46" s="25" t="n">
+        <v>0.9692</v>
+      </c>
+      <c r="E46" s="25"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D47" s="25" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="E47" s="25"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D48" s="25" t="n">
+        <v>0.2632</v>
+      </c>
+      <c r="E48" s="25"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D49" s="25" t="n">
+        <v>0.6646</v>
+      </c>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D50" s="25" t="n">
+        <v>0.7849</v>
+      </c>
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D51" s="25" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D52" s="25" t="n">
+        <v>0.8571</v>
+      </c>
+      <c r="E52" s="25"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D53" s="25" t="n">
+        <v>0.9142</v>
+      </c>
+      <c r="E53" s="25"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D54" s="25" t="n">
+        <v>0.9937</v>
+      </c>
+      <c r="E54" s="25" t="n">
+        <f aca="false">AVERAGE(D54:D66)</f>
+        <v>0.5956</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D55" s="25" t="n">
+        <v>0.9923</v>
+      </c>
+      <c r="E55" s="25"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D56" s="25" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="E56" s="25"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D57" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="25"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D58" s="25" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="E58" s="25"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D59" s="25" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="E59" s="25"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D60" s="25" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="E60" s="25"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D61" s="25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E61" s="25"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D62" s="25" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="E62" s="25"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D63" s="25" t="n">
+        <v>0.0245</v>
+      </c>
+      <c r="E63" s="25"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D64" s="25" t="n">
+        <v>0.9761</v>
+      </c>
+      <c r="E64" s="25"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D65" s="25" t="n">
+        <v>0.9982</v>
+      </c>
+      <c r="E65" s="25"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D66" s="25" t="n">
+        <v>0.9697</v>
+      </c>
+      <c r="E66" s="25"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D67" s="25" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="E67" s="25" t="n">
+        <f aca="false">AVERAGE(D67:D79)</f>
+        <v>0.670130769230769</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D68" s="25" t="n">
+        <v>0.9983</v>
+      </c>
+      <c r="E68" s="25"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D69" s="25" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="E69" s="25"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D70" s="25" t="n">
+        <v>0.9638</v>
+      </c>
+      <c r="E70" s="25"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D71" s="25" t="n">
+        <v>0.9973</v>
+      </c>
+      <c r="E71" s="25"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D72" s="25" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="E72" s="25"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D73" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="25"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D74" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="25"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D75" s="25" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="E75" s="25"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D76" s="25" t="n">
+        <v>0.7859</v>
+      </c>
+      <c r="E76" s="25"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D77" s="25" t="n">
+        <v>0.9835</v>
+      </c>
+      <c r="E77" s="25"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D78" s="25" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="E78" s="25"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D79" s="25" t="n">
+        <v>0.9924</v>
+      </c>
+      <c r="E79" s="25"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D80" s="25" t="n">
+        <v>0.9937</v>
+      </c>
+      <c r="E80" s="25" t="n">
+        <f aca="false">AVERAGE(D80:D92)</f>
+        <v>0.944546153846154</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D81" s="25" t="n">
+        <v>0.9923</v>
+      </c>
+      <c r="E81" s="25"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D82" s="25" t="n">
+        <v>0.9469</v>
+      </c>
+      <c r="E82" s="25"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D83" s="25" t="n">
+        <v>0.9987</v>
+      </c>
+      <c r="E83" s="25"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D84" s="25" t="n">
+        <v>0.9828</v>
+      </c>
+      <c r="E84" s="25"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D85" s="25" t="n">
+        <v>0.9916</v>
+      </c>
+      <c r="E85" s="25"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D86" s="25" t="n">
+        <v>0.9636</v>
+      </c>
+      <c r="E86" s="25"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D87" s="25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E87" s="25"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D88" s="25" t="n">
+        <v>0.8473</v>
+      </c>
+      <c r="E88" s="25"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D89" s="25" t="n">
+        <v>0.8182</v>
+      </c>
+      <c r="E89" s="25"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D90" s="25" t="n">
+        <v>0.9761</v>
+      </c>
+      <c r="E90" s="25"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D91" s="25" t="n">
+        <v>0.9982</v>
+      </c>
+      <c r="E91" s="25"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D92" s="25" t="n">
+        <v>0.9697</v>
+      </c>
+      <c r="E92" s="25"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D93" s="25" t="n">
+        <v>0.9993</v>
+      </c>
+      <c r="E93" s="25" t="n">
+        <f aca="false">AVERAGE(D93:D105)</f>
+        <v>0.890907692307692</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D94" s="25" t="n">
+        <v>0.9983</v>
+      </c>
+      <c r="E94" s="25"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D95" s="25" t="n">
+        <v>0.9054</v>
+      </c>
+      <c r="E95" s="25"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D96" s="25" t="n">
+        <v>0.9638</v>
+      </c>
+      <c r="E96" s="25"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D97" s="25" t="n">
+        <v>0.9973</v>
+      </c>
+      <c r="E97" s="25"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D98" s="25" t="n">
+        <v>0.9886</v>
+      </c>
+      <c r="E98" s="25"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D99" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="25"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D100" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" s="25"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D101" s="25" t="n">
+        <v>0.9807</v>
+      </c>
+      <c r="E101" s="25"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D102" s="25" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="E102" s="25"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D103" s="25" t="n">
+        <v>0.9835</v>
+      </c>
+      <c r="E103" s="25"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D104" s="25" t="n">
+        <v>0.9865</v>
+      </c>
+      <c r="E104" s="25"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D105" s="25" t="n">
+        <v>0.9924</v>
+      </c>
+      <c r="E105" s="25"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D105"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/network-attack-detection/output/ctu_13/results/agg_results.xlsx
+++ b/network-attack-detection/output/ctu_13/results/agg_results.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,6 +27,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">rpca!$A$1:$D$105</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Scores!$A$1:$J$262</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4180" uniqueCount="1556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4169" uniqueCount="1552">
   <si>
     <t xml:space="preserve">Algorithm</t>
   </si>
@@ -2482,7 +2483,7 @@
     <t xml:space="preserve">0.11714659685863875</t>
   </si>
   <si>
-    <t xml:space="preserve">161</t>
+    <t xml:space="preserve">0.161</t>
   </si>
   <si>
     <t xml:space="preserve">0.3411016949152542</t>
@@ -4597,31 +4598,19 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">S-MCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KS-MCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKS-MCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK-MCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS-MCD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skew-RPCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Online VFDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it is not fair compare online case to agg data</t>
+    <t xml:space="preserve">K-Means</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROBPCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">md-RPCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kd-RPCA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd-RPCA </t>
   </si>
   <si>
     <t xml:space="preserve">ID</t>
@@ -4712,11 +4701,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -4855,7 +4845,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4920,10 +4910,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4937,6 +4923,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4956,7 +4950,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5041,6 +5035,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -5267,13 +5265,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B183" activeCellId="0" sqref="B183"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5321,7 +5319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -5353,7 +5351,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -5385,7 +5383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -5417,7 +5415,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -5449,7 +5447,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>41</v>
       </c>
@@ -5481,7 +5479,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
@@ -5513,7 +5511,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>41</v>
       </c>
@@ -5545,7 +5543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -5577,7 +5575,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
         <v>64</v>
       </c>
@@ -5609,7 +5607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
@@ -5641,7 +5639,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>64</v>
       </c>
@@ -5705,7 +5703,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>89</v>
       </c>
@@ -5737,7 +5735,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>89</v>
       </c>
@@ -5769,7 +5767,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>89</v>
       </c>
@@ -5801,7 +5799,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>89</v>
       </c>
@@ -5833,7 +5831,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
         <v>112</v>
       </c>
@@ -5865,7 +5863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>112</v>
       </c>
@@ -5897,7 +5895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>112</v>
       </c>
@@ -5929,7 +5927,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
         <v>112</v>
       </c>
@@ -5961,7 +5959,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -5993,7 +5991,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -6025,7 +6023,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -6057,7 +6055,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -6089,7 +6087,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -6121,7 +6119,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
@@ -6153,7 +6151,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>41</v>
       </c>
@@ -6185,7 +6183,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
@@ -6217,7 +6215,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>64</v>
       </c>
@@ -6249,7 +6247,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -6281,7 +6279,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="s">
         <v>64</v>
       </c>
@@ -6345,7 +6343,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
         <v>89</v>
       </c>
@@ -6377,7 +6375,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
         <v>89</v>
       </c>
@@ -6409,7 +6407,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
         <v>89</v>
       </c>
@@ -6441,7 +6439,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
         <v>89</v>
       </c>
@@ -6473,7 +6471,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
         <v>112</v>
       </c>
@@ -6505,7 +6503,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
         <v>112</v>
       </c>
@@ -6537,7 +6535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
         <v>112</v>
       </c>
@@ -6569,7 +6567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
         <v>112</v>
       </c>
@@ -6601,7 +6599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -6633,7 +6631,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -6665,7 +6663,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -6697,7 +6695,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -6729,7 +6727,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>41</v>
       </c>
@@ -6761,7 +6759,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>41</v>
       </c>
@@ -6793,7 +6791,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>41</v>
       </c>
@@ -6825,7 +6823,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>41</v>
       </c>
@@ -6857,7 +6855,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -6889,7 +6887,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
         <v>64</v>
       </c>
@@ -6921,7 +6919,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -6985,7 +6983,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
         <v>89</v>
       </c>
@@ -7017,7 +7015,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
         <v>89</v>
       </c>
@@ -7049,7 +7047,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
         <v>89</v>
       </c>
@@ -7081,7 +7079,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
         <v>89</v>
       </c>
@@ -7113,7 +7111,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
         <v>112</v>
       </c>
@@ -7145,7 +7143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
         <v>112</v>
       </c>
@@ -7177,7 +7175,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
         <v>112</v>
       </c>
@@ -7209,7 +7207,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
         <v>112</v>
       </c>
@@ -7241,7 +7239,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -7273,7 +7271,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -7305,7 +7303,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -7337,7 +7335,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -7369,7 +7367,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>41</v>
       </c>
@@ -7401,7 +7399,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>41</v>
       </c>
@@ -7433,7 +7431,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>41</v>
       </c>
@@ -7465,7 +7463,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>41</v>
       </c>
@@ -7497,7 +7495,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
         <v>64</v>
       </c>
@@ -7529,7 +7527,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
         <v>64</v>
       </c>
@@ -7561,7 +7559,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
         <v>64</v>
       </c>
@@ -7625,7 +7623,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
         <v>89</v>
       </c>
@@ -7657,7 +7655,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
         <v>89</v>
       </c>
@@ -7689,7 +7687,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
         <v>89</v>
       </c>
@@ -7721,7 +7719,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
         <v>89</v>
       </c>
@@ -7753,7 +7751,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
         <v>470</v>
       </c>
@@ -7785,7 +7783,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
         <v>112</v>
       </c>
@@ -7817,7 +7815,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
         <v>112</v>
       </c>
@@ -7849,7 +7847,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
         <v>112</v>
       </c>
@@ -7881,7 +7879,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
         <v>112</v>
       </c>
@@ -7913,7 +7911,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -7945,7 +7943,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -7977,7 +7975,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
@@ -8009,7 +8007,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
@@ -8041,7 +8039,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>41</v>
       </c>
@@ -8073,7 +8071,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>41</v>
       </c>
@@ -8105,7 +8103,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>41</v>
       </c>
@@ -8137,7 +8135,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>41</v>
       </c>
@@ -8169,7 +8167,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>64</v>
       </c>
@@ -8201,7 +8199,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
         <v>64</v>
       </c>
@@ -8233,7 +8231,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>64</v>
       </c>
@@ -8297,7 +8295,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
         <v>89</v>
       </c>
@@ -8329,7 +8327,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>89</v>
       </c>
@@ -8361,7 +8359,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
         <v>89</v>
       </c>
@@ -8393,7 +8391,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
         <v>89</v>
       </c>
@@ -8425,7 +8423,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="s">
         <v>112</v>
       </c>
@@ -8457,7 +8455,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="s">
         <v>112</v>
       </c>
@@ -8489,7 +8487,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
         <v>112</v>
       </c>
@@ -8521,7 +8519,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
         <v>112</v>
       </c>
@@ -8553,7 +8551,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>10</v>
       </c>
@@ -8585,7 +8583,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -8617,7 +8615,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>10</v>
       </c>
@@ -8649,7 +8647,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
@@ -8681,7 +8679,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>41</v>
       </c>
@@ -8713,7 +8711,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>41</v>
       </c>
@@ -8745,7 +8743,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
         <v>41</v>
       </c>
@@ -8777,7 +8775,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>41</v>
       </c>
@@ -8809,7 +8807,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="5" t="s">
         <v>64</v>
       </c>
@@ -8841,7 +8839,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>64</v>
       </c>
@@ -8873,7 +8871,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>64</v>
       </c>
@@ -8937,7 +8935,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="s">
         <v>89</v>
       </c>
@@ -8969,7 +8967,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>89</v>
       </c>
@@ -9001,7 +8999,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="s">
         <v>89</v>
       </c>
@@ -9033,7 +9031,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="s">
         <v>89</v>
       </c>
@@ -9065,7 +9063,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
         <v>112</v>
       </c>
@@ -9097,7 +9095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
         <v>112</v>
       </c>
@@ -9129,7 +9127,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
         <v>112</v>
       </c>
@@ -9161,7 +9159,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
         <v>112</v>
       </c>
@@ -9193,7 +9191,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -9225,7 +9223,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -9257,7 +9255,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -9289,7 +9287,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -9321,7 +9319,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>41</v>
       </c>
@@ -9353,7 +9351,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>41</v>
       </c>
@@ -9385,7 +9383,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
         <v>41</v>
       </c>
@@ -9417,7 +9415,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
         <v>41</v>
       </c>
@@ -9449,7 +9447,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
         <v>64</v>
       </c>
@@ -9481,7 +9479,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
         <v>64</v>
       </c>
@@ -9545,7 +9543,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
         <v>64</v>
       </c>
@@ -9577,7 +9575,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="s">
         <v>89</v>
       </c>
@@ -9609,7 +9607,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="s">
         <v>89</v>
       </c>
@@ -9641,7 +9639,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="s">
         <v>89</v>
       </c>
@@ -9673,7 +9671,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="s">
         <v>89</v>
       </c>
@@ -9705,7 +9703,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
         <v>112</v>
       </c>
@@ -9737,7 +9735,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
         <v>112</v>
       </c>
@@ -9769,7 +9767,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
         <v>112</v>
       </c>
@@ -9801,7 +9799,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
         <v>112</v>
       </c>
@@ -9833,7 +9831,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>10</v>
       </c>
@@ -9865,7 +9863,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
@@ -9897,7 +9895,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>10</v>
       </c>
@@ -9929,7 +9927,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>10</v>
       </c>
@@ -9961,7 +9959,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>41</v>
       </c>
@@ -9993,7 +9991,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>41</v>
       </c>
@@ -10025,7 +10023,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>41</v>
       </c>
@@ -10057,7 +10055,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>41</v>
       </c>
@@ -10089,7 +10087,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="5" t="s">
         <v>64</v>
       </c>
@@ -10121,7 +10119,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="5" t="s">
         <v>64</v>
       </c>
@@ -10185,7 +10183,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="5" t="s">
         <v>64</v>
       </c>
@@ -10217,7 +10215,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="s">
         <v>89</v>
       </c>
@@ -10249,7 +10247,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="s">
         <v>89</v>
       </c>
@@ -10281,7 +10279,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="s">
         <v>89</v>
       </c>
@@ -10313,7 +10311,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="s">
         <v>89</v>
       </c>
@@ -10345,7 +10343,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
         <v>112</v>
       </c>
@@ -10377,7 +10375,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
         <v>112</v>
       </c>
@@ -10409,7 +10407,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
         <v>112</v>
       </c>
@@ -10441,7 +10439,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
         <v>112</v>
       </c>
@@ -10473,7 +10471,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>10</v>
       </c>
@@ -10505,7 +10503,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>10</v>
       </c>
@@ -10537,7 +10535,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>10</v>
       </c>
@@ -10569,7 +10567,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>10</v>
       </c>
@@ -10601,7 +10599,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
         <v>41</v>
       </c>
@@ -10633,7 +10631,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>41</v>
       </c>
@@ -10665,7 +10663,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
         <v>41</v>
       </c>
@@ -10697,7 +10695,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
         <v>41</v>
       </c>
@@ -10729,7 +10727,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
         <v>64</v>
       </c>
@@ -10761,7 +10759,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
         <v>64</v>
       </c>
@@ -10793,7 +10791,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
         <v>64</v>
       </c>
@@ -10857,7 +10855,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6" t="s">
         <v>89</v>
       </c>
@@ -10889,7 +10887,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6" t="s">
         <v>89</v>
       </c>
@@ -10921,7 +10919,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6" t="s">
         <v>89</v>
       </c>
@@ -10953,7 +10951,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6" t="s">
         <v>89</v>
       </c>
@@ -10985,7 +10983,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
         <v>112</v>
       </c>
@@ -11017,7 +11015,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
         <v>112</v>
       </c>
@@ -11049,7 +11047,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
         <v>112</v>
       </c>
@@ -11081,7 +11079,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
         <v>112</v>
       </c>
@@ -11113,7 +11111,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>10</v>
       </c>
@@ -11145,7 +11143,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>10</v>
       </c>
@@ -11177,7 +11175,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>10</v>
       </c>
@@ -11209,7 +11207,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>10</v>
       </c>
@@ -11241,7 +11239,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
         <v>41</v>
       </c>
@@ -11273,7 +11271,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
         <v>41</v>
       </c>
@@ -11305,7 +11303,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
         <v>41</v>
       </c>
@@ -11337,7 +11335,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
         <v>41</v>
       </c>
@@ -11369,7 +11367,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
         <v>64</v>
       </c>
@@ -11401,7 +11399,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
         <v>64</v>
       </c>
@@ -11433,7 +11431,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
         <v>64</v>
       </c>
@@ -11497,7 +11495,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6" t="s">
         <v>89</v>
       </c>
@@ -11529,7 +11527,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6" t="s">
         <v>89</v>
       </c>
@@ -11561,7 +11559,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6" t="s">
         <v>89</v>
       </c>
@@ -11593,7 +11591,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6" t="s">
         <v>89</v>
       </c>
@@ -11625,7 +11623,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
         <v>112</v>
       </c>
@@ -11657,7 +11655,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
         <v>112</v>
       </c>
@@ -11689,7 +11687,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
         <v>112</v>
       </c>
@@ -11721,7 +11719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
         <v>112</v>
       </c>
@@ -11753,7 +11751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>10</v>
       </c>
@@ -11785,7 +11783,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -11817,7 +11815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>10</v>
       </c>
@@ -11849,7 +11847,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>10</v>
       </c>
@@ -11881,7 +11879,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
         <v>41</v>
       </c>
@@ -11913,7 +11911,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
         <v>41</v>
       </c>
@@ -11945,7 +11943,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
         <v>41</v>
       </c>
@@ -11977,7 +11975,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
         <v>41</v>
       </c>
@@ -12009,7 +12007,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="5" t="s">
         <v>64</v>
       </c>
@@ -12041,7 +12039,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="5" t="s">
         <v>64</v>
       </c>
@@ -12073,7 +12071,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="5" t="s">
         <v>64</v>
       </c>
@@ -12137,7 +12135,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6" t="s">
         <v>89</v>
       </c>
@@ -12169,7 +12167,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6" t="s">
         <v>89</v>
       </c>
@@ -12201,7 +12199,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6" t="s">
         <v>89</v>
       </c>
@@ -12233,7 +12231,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6" t="s">
         <v>89</v>
       </c>
@@ -12265,7 +12263,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
         <v>112</v>
       </c>
@@ -12297,7 +12295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
         <v>112</v>
       </c>
@@ -12329,7 +12327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
         <v>112</v>
       </c>
@@ -12361,7 +12359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
         <v>112</v>
       </c>
@@ -12393,7 +12391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
         <v>10</v>
       </c>
@@ -12425,7 +12423,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
         <v>10</v>
       </c>
@@ -12457,7 +12455,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>10</v>
       </c>
@@ -12489,7 +12487,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>10</v>
       </c>
@@ -12521,7 +12519,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="4" t="s">
         <v>41</v>
       </c>
@@ -12553,7 +12551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="4" t="s">
         <v>41</v>
       </c>
@@ -12585,7 +12583,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="4" t="s">
         <v>41</v>
       </c>
@@ -12617,7 +12615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="4" t="s">
         <v>41</v>
       </c>
@@ -12649,7 +12647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="5" t="s">
         <v>64</v>
       </c>
@@ -12681,7 +12679,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="5" t="s">
         <v>64</v>
       </c>
@@ -12713,7 +12711,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="5" t="s">
         <v>64</v>
       </c>
@@ -12777,7 +12775,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6" t="s">
         <v>89</v>
       </c>
@@ -12809,7 +12807,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6" t="s">
         <v>89</v>
       </c>
@@ -12841,7 +12839,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6" t="s">
         <v>89</v>
       </c>
@@ -12873,7 +12871,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6" t="s">
         <v>89</v>
       </c>
@@ -12905,7 +12903,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
         <v>112</v>
       </c>
@@ -12937,7 +12935,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
         <v>112</v>
       </c>
@@ -12969,7 +12967,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
         <v>112</v>
       </c>
@@ -13001,7 +12999,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
         <v>112</v>
       </c>
@@ -13033,7 +13031,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>10</v>
       </c>
@@ -13065,7 +13063,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>10</v>
       </c>
@@ -13097,7 +13095,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>10</v>
       </c>
@@ -13129,7 +13127,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>10</v>
       </c>
@@ -13161,7 +13159,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
         <v>41</v>
       </c>
@@ -13193,7 +13191,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="4" t="s">
         <v>41</v>
       </c>
@@ -13225,7 +13223,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="4" t="s">
         <v>41</v>
       </c>
@@ -13257,7 +13255,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="4" t="s">
         <v>41</v>
       </c>
@@ -13289,7 +13287,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="5" t="s">
         <v>64</v>
       </c>
@@ -13353,7 +13351,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="5" t="s">
         <v>64</v>
       </c>
@@ -13385,7 +13383,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="5" t="s">
         <v>64</v>
       </c>
@@ -13417,7 +13415,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6" t="s">
         <v>89</v>
       </c>
@@ -13449,7 +13447,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6" t="s">
         <v>89</v>
       </c>
@@ -13481,7 +13479,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6" t="s">
         <v>89</v>
       </c>
@@ -13513,7 +13511,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6" t="s">
         <v>89</v>
       </c>
@@ -13545,7 +13543,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
         <v>112</v>
       </c>
@@ -13577,7 +13575,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
         <v>112</v>
       </c>
@@ -13609,7 +13607,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
         <v>112</v>
       </c>
@@ -13641,7 +13639,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="14.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
         <v>112</v>
       </c>
@@ -13777,6 +13775,18 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A1:J262">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="MB-K-Means"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <customFilters and="true">
+        <customFilter operator="equal" val="0.15s"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -13784,6 +13794,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17379,8 +17390,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17388,11 +17399,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="4" style="0" width="5.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="4" style="0" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17402,11 +17410,11 @@
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15" t="s">
-        <v>1519</v>
+        <v>10</v>
       </c>
       <c r="E1" s="15"/>
       <c r="F1" s="15" t="s">
-        <v>41</v>
+        <v>1519</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15" t="s">
@@ -17414,516 +17422,404 @@
       </c>
       <c r="I1" s="15"/>
       <c r="J1" s="15" t="s">
-        <v>89</v>
+        <v>1521</v>
       </c>
       <c r="K1" s="15"/>
       <c r="L1" s="15" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="O1" s="15"/>
-      <c r="P1" s="15" t="s">
-        <v>1523</v>
-      </c>
+      <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
         <v>1524</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>1525</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>1526</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="D2" s="16" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="17" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>1530</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>903</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>903</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>1531</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>903</v>
       </c>
-      <c r="J2" s="17" t="s">
-        <v>1531</v>
-      </c>
-      <c r="K2" s="17" t="s">
+      <c r="J2" s="16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="K2" s="16" t="s">
         <v>903</v>
       </c>
-      <c r="L2" s="17" t="s">
-        <v>1531</v>
-      </c>
-      <c r="M2" s="17" t="s">
+      <c r="L2" s="16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M2" s="16" t="s">
         <v>903</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>1531</v>
-      </c>
-      <c r="O2" s="17" t="s">
+      <c r="N2" s="16" t="s">
+        <v>1527</v>
+      </c>
+      <c r="O2" s="16" t="s">
         <v>903</v>
       </c>
-      <c r="P2" s="17" t="s">
-        <v>1531</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>903</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>1531</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>903</v>
-      </c>
-      <c r="T2" s="17" t="s">
-        <v>1531</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>903</v>
-      </c>
-      <c r="V2" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D3" s="21" t="n">
-        <v>0.705633713961264</v>
-      </c>
-      <c r="E3" s="21" t="n">
-        <v>0.026263670024972</v>
-      </c>
-      <c r="F3" s="21" t="n">
-        <v>0.66084158728156</v>
-      </c>
-      <c r="G3" s="21" t="n">
-        <v>0.0204946996466431</v>
+      <c r="B3" s="19" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D3" s="20" t="n">
+        <v>0.342048630865511</v>
+      </c>
+      <c r="E3" s="20" t="n">
+        <v>0.45502454519203</v>
+      </c>
+      <c r="F3" s="20" t="n">
+        <v>0.200966525223951</v>
+      </c>
+      <c r="G3" s="20" t="n">
+        <v>0.250707324740648</v>
       </c>
       <c r="H3" s="21" t="n">
-        <v>0.661346287300486</v>
+        <v>0.289994</v>
       </c>
       <c r="I3" s="21" t="n">
-        <v>0.0167631464648204</v>
+        <v>0.34613</v>
       </c>
       <c r="J3" s="21" t="n">
-        <v>0.342628225348558</v>
+        <v>0.9748</v>
       </c>
       <c r="K3" s="21" t="n">
-        <v>0.524559688557556</v>
+        <v>0.9622</v>
       </c>
       <c r="L3" s="21" t="n">
-        <v>0.0838712548410795</v>
+        <v>0.9937</v>
       </c>
       <c r="M3" s="21" t="n">
-        <v>0.679649464459591</v>
+        <v>0.9993</v>
       </c>
       <c r="N3" s="21" t="n">
-        <v>0.0838712548410795</v>
+        <v>0.9937</v>
       </c>
       <c r="O3" s="21" t="n">
-        <v>0.679472426307869</v>
-      </c>
-      <c r="P3" s="21" t="n">
-        <v>0.0690808150905306</v>
-      </c>
-      <c r="Q3" s="21" t="n">
-        <v>0.517039812015874</v>
-      </c>
-      <c r="R3" s="10" t="n">
-        <v>0.688</v>
-      </c>
-      <c r="S3" s="10" t="n">
-        <v>0.666</v>
-      </c>
-      <c r="T3" s="10" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="U3" s="10" t="n">
-        <v>0.977</v>
-      </c>
-      <c r="V3" s="10" t="n">
-        <v>0.921972885032538</v>
-      </c>
+        <v>0.9993</v>
+      </c>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
       <c r="W3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>1532</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D4" s="21" t="n">
-        <v>0.0256007728535201</v>
-      </c>
-      <c r="E4" s="21" t="n">
-        <v>0.53821354067893</v>
-      </c>
-      <c r="F4" s="21" t="n">
-        <v>0.00107291694807556</v>
-      </c>
-      <c r="G4" s="21" t="n">
-        <v>0.537454959226247</v>
+      <c r="B4" s="19" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D4" s="20" t="n">
+        <v>0.345053835800807</v>
+      </c>
+      <c r="E4" s="20" t="n">
+        <v>0.479234053564497</v>
+      </c>
+      <c r="F4" s="20" t="n">
+        <v>0.127271115837986</v>
+      </c>
+      <c r="G4" s="20" t="n">
+        <v>0.145974602391814</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>0.00107291694807556</v>
+        <v>0.279282</v>
       </c>
       <c r="I4" s="21" t="n">
-        <v>0.537454959226247</v>
+        <v>0.371508</v>
       </c>
       <c r="J4" s="21" t="n">
-        <v>0.711864189343293</v>
+        <v>0.9882</v>
       </c>
       <c r="K4" s="21" t="n">
-        <v>0.732785723092097</v>
+        <v>0.9682</v>
       </c>
       <c r="L4" s="21" t="n">
-        <v>0.776377356793484</v>
+        <v>0.9923</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0.0458941778873507</v>
+        <v>0.9983</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0.776377356793484</v>
+        <v>0.9923</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.0458941778873507</v>
-      </c>
-      <c r="P4" s="21" t="n">
-        <v>0.693264491903309</v>
-      </c>
-      <c r="Q4" s="21" t="n">
-        <v>0.0493077944244263</v>
-      </c>
-      <c r="R4" s="10" t="n">
-        <v>0.749</v>
-      </c>
-      <c r="S4" s="10" t="n">
-        <v>0.707</v>
-      </c>
-      <c r="T4" s="10" t="n">
-        <v>0.986</v>
-      </c>
-      <c r="U4" s="10" t="n">
-        <v>0.978</v>
-      </c>
-      <c r="V4" s="10" t="n">
-        <v>0.685339168490153</v>
-      </c>
+        <v>0.9983</v>
+      </c>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
       <c r="W4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="20" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D5" s="21" t="n">
-        <v>0.190490927602153</v>
-      </c>
-      <c r="E5" s="21" t="n">
-        <v>0.022922238043969</v>
-      </c>
-      <c r="F5" s="21" t="n">
-        <v>0.198899175328634</v>
-      </c>
-      <c r="G5" s="21" t="n">
-        <v>0.0503059523642774</v>
+      <c r="B5" s="19" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D5" s="20" t="n">
+        <v>0.00653886164363204</v>
+      </c>
+      <c r="E5" s="20" t="n">
+        <v>0.0068960112843821</v>
+      </c>
+      <c r="F5" s="20" t="n">
+        <v>0.0924616094707035</v>
+      </c>
+      <c r="G5" s="20" t="n">
+        <v>0.111682515039783</v>
       </c>
       <c r="H5" s="21" t="n">
-        <v>0.198864605153224</v>
+        <v>0.087769</v>
       </c>
       <c r="I5" s="21" t="n">
-        <v>0.0503059523642774</v>
+        <v>0.113669</v>
       </c>
       <c r="J5" s="21" t="n">
-        <v>0.0642831006362443</v>
+        <v>0.8618</v>
       </c>
       <c r="K5" s="21" t="n">
-        <v>0.313041591689319</v>
+        <v>0.8025</v>
       </c>
       <c r="L5" s="21" t="n">
-        <v>0.0450870903440594</v>
+        <v>0.0003</v>
       </c>
       <c r="M5" s="21" t="n">
-        <v>0.320954122835859</v>
+        <v>0.0006</v>
       </c>
       <c r="N5" s="21" t="n">
-        <v>0.0449768168967933</v>
+        <v>0.9469</v>
       </c>
       <c r="O5" s="21" t="n">
-        <v>0.320954122835859</v>
-      </c>
-      <c r="P5" s="21" t="n">
-        <v>0.052923285255833</v>
-      </c>
-      <c r="Q5" s="21" t="n">
-        <v>0.336531790003296</v>
-      </c>
-      <c r="R5" s="10" t="n">
-        <v>0.327</v>
-      </c>
-      <c r="S5" s="10" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="T5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="22" t="n">
-        <v>0.964493519958528</v>
-      </c>
+        <v>0.9054</v>
+      </c>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="23"/>
       <c r="W5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21" t="n">
-        <v>0.00062266500622665</v>
-      </c>
-      <c r="F6" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21" t="n">
-        <v>0</v>
+      <c r="B6" s="19" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D6" s="20" t="n">
+        <v>0.144842434918771</v>
+      </c>
+      <c r="E6" s="20" t="n">
+        <v>0.216544117647059</v>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>0.0884820747520976</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>0.111665478736042</v>
       </c>
       <c r="H6" s="21" t="n">
-        <v>0</v>
+        <v>0.057665</v>
       </c>
       <c r="I6" s="21" t="n">
-        <v>0</v>
+        <v>0.077484</v>
       </c>
       <c r="J6" s="21" t="n">
-        <v>0.244713478611784</v>
+        <v>0.8571</v>
       </c>
       <c r="K6" s="21" t="n">
-        <v>0.321668909825034</v>
+        <v>0.7998</v>
       </c>
       <c r="L6" s="21" t="n">
-        <v>0.244713478611784</v>
+        <v>1</v>
       </c>
       <c r="M6" s="21" t="n">
-        <v>0.326962078637256</v>
+        <v>0.9638</v>
       </c>
       <c r="N6" s="21" t="n">
-        <v>0.244713478611784</v>
+        <v>0.9987</v>
       </c>
       <c r="O6" s="21" t="n">
-        <v>0.326962078637256</v>
-      </c>
-      <c r="P6" s="21" t="n">
-        <v>0.244713478611784</v>
-      </c>
-      <c r="Q6" s="21" t="n">
-        <v>0.338178011677295</v>
-      </c>
-      <c r="R6" s="10" t="n">
-        <v>0.234</v>
-      </c>
-      <c r="S6" s="10" t="n">
-        <v>0.223</v>
-      </c>
-      <c r="T6" s="10" t="n">
-        <v>0.857</v>
-      </c>
-      <c r="U6" s="10" t="n">
-        <v>0.964</v>
-      </c>
-      <c r="V6" s="10" t="n">
-        <v>0.953308862087048</v>
-      </c>
+        <v>0.9638</v>
+      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
       <c r="W6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D7" s="21" t="n">
-        <v>0.0356340398066095</v>
-      </c>
-      <c r="E7" s="21" t="n">
-        <v>0.851236053380004</v>
-      </c>
-      <c r="F7" s="21" t="n">
-        <v>0.666353357476571</v>
-      </c>
-      <c r="G7" s="21" t="n">
-        <v>0.862385321100917</v>
+      <c r="B7" s="19" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D7" s="20" t="n">
+        <v>0.323723228995058</v>
+      </c>
+      <c r="E7" s="20" t="n">
+        <v>0.140515222482436</v>
+      </c>
+      <c r="F7" s="20" t="n">
+        <v>0.18212478920742</v>
+      </c>
+      <c r="G7" s="20" t="n">
+        <v>0.25629290617849</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>0.66179962341464</v>
+        <v>0.219754</v>
       </c>
       <c r="I7" s="21" t="n">
-        <v>0.862385321100917</v>
+        <v>0.308176</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>0.362965868450644</v>
+        <v>0.8502</v>
       </c>
       <c r="K7" s="21" t="n">
-        <v>0.275440100032314</v>
+        <v>0.8237</v>
       </c>
       <c r="L7" s="21" t="n">
-        <v>0.0761014686248331</v>
+        <v>0.9828</v>
       </c>
       <c r="M7" s="21" t="n">
-        <v>0.127118644067797</v>
+        <v>0.9973</v>
       </c>
       <c r="N7" s="21" t="n">
-        <v>0.0732683450342083</v>
+        <v>0.9828</v>
       </c>
       <c r="O7" s="21" t="n">
-        <v>0.126468889530622</v>
-      </c>
-      <c r="P7" s="21" t="n">
-        <v>0.575807665179828</v>
-      </c>
-      <c r="Q7" s="21" t="n">
-        <v>0.121468926553672</v>
-      </c>
-      <c r="R7" s="10" t="n">
-        <v>0.507</v>
-      </c>
-      <c r="S7" s="10" t="n">
-        <v>0.514</v>
-      </c>
-      <c r="T7" s="10" t="n">
-        <v>0.946</v>
-      </c>
-      <c r="U7" s="10" t="n">
-        <v>0.945</v>
-      </c>
-      <c r="V7" s="10" t="n">
-        <v>0</v>
-      </c>
+        <v>0.9973</v>
+      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
       <c r="W7" s="10"/>
     </row>
     <row r="8" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D8" s="21" t="n">
-        <v>0.000729698971272519</v>
-      </c>
-      <c r="E8" s="21" t="n">
-        <v>0.0144156425125418</v>
-      </c>
-      <c r="F8" s="21" t="n">
-        <v>0.000888303350634964</v>
-      </c>
-      <c r="G8" s="21" t="n">
-        <v>0.0144739511757201</v>
+      <c r="B8" s="19" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>1536</v>
+      </c>
+      <c r="D8" s="20" t="n">
+        <v>0.0039464243004066</v>
+      </c>
+      <c r="E8" s="20" t="n">
+        <v>0.0148468914321064</v>
+      </c>
+      <c r="F8" s="20" t="n">
+        <v>0.220524967370813</v>
+      </c>
+      <c r="G8" s="20" t="n">
+        <v>0.288075922240931</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>0.000864133582181346</v>
+        <v>0.284866</v>
       </c>
       <c r="I8" s="21" t="n">
-        <v>0.0144739511757201</v>
+        <v>0.386656</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>0.54616327161334</v>
+        <v>0.9594</v>
       </c>
       <c r="K8" s="21" t="n">
-        <v>0.478597080630213</v>
+        <v>0.9692</v>
       </c>
       <c r="L8" s="21" t="n">
-        <v>0.668996029555912</v>
+        <v>0.0011</v>
       </c>
       <c r="M8" s="21" t="n">
-        <v>0.534385891165709</v>
+        <v>0.0022</v>
       </c>
       <c r="N8" s="21" t="n">
-        <v>0.669016121308492</v>
+        <v>0.9916</v>
       </c>
       <c r="O8" s="21" t="n">
-        <v>0.534025482678055</v>
-      </c>
-      <c r="P8" s="21" t="n">
-        <v>0.669185547521798</v>
-      </c>
-      <c r="Q8" s="21" t="n">
-        <v>0.550533386466839</v>
-      </c>
-      <c r="R8" s="10" t="n">
-        <v>0.692</v>
-      </c>
-      <c r="S8" s="10" t="n">
-        <v>0.709</v>
-      </c>
-      <c r="T8" s="10" t="n">
-        <v>0.956</v>
-      </c>
-      <c r="U8" s="10" t="n">
-        <v>0.699</v>
-      </c>
-      <c r="V8" s="23" t="n">
-        <v>0.956995820271682</v>
-      </c>
+        <v>0.9886</v>
+      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="V8" s="24"/>
       <c r="ALO8" s="0"/>
       <c r="ALP8" s="0"/>
       <c r="ALQ8" s="0"/>
@@ -17951,69 +17847,50 @@
       <c r="A9" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D9" s="21" t="n">
-        <v>0.446748185111314</v>
-      </c>
-      <c r="E9" s="21" t="n">
-        <v>0.355034065102195</v>
-      </c>
-      <c r="F9" s="21" t="n">
-        <v>0.424784625579854</v>
-      </c>
-      <c r="G9" s="21" t="n">
-        <v>0.33379158478323</v>
+      <c r="B9" s="19" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D9" s="20" t="n">
+        <v>0.507586206896552</v>
+      </c>
+      <c r="E9" s="20" t="n">
+        <v>0.487671232876712</v>
+      </c>
+      <c r="F9" s="20" t="n">
+        <v>0.0692640692640693</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>0.161</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>0.429423459244533</v>
+        <v>0.067473</v>
       </c>
       <c r="I9" s="21" t="n">
-        <v>0.343309744987846</v>
+        <v>0.109631</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>0.265076209410205</v>
+        <v>0.8551</v>
       </c>
       <c r="K9" s="21" t="n">
-        <v>0.408476104598738</v>
+        <v>0.832</v>
       </c>
       <c r="L9" s="21" t="n">
-        <v>0.0344599072233267</v>
+        <v>0.0033</v>
       </c>
       <c r="M9" s="21" t="n">
-        <v>0.0482809085938529</v>
+        <v>0</v>
       </c>
       <c r="N9" s="21" t="n">
-        <v>0.0344599072233267</v>
+        <v>0.9636</v>
       </c>
       <c r="O9" s="21" t="n">
-        <v>0.0499396241200446</v>
-      </c>
-      <c r="P9" s="21" t="n">
-        <v>0.0291583830351226</v>
-      </c>
-      <c r="Q9" s="21" t="n">
-        <v>0.0360685302073941</v>
-      </c>
-      <c r="R9" s="10" t="n">
-        <v>0.534</v>
-      </c>
-      <c r="S9" s="10" t="n">
-        <v>0.536</v>
-      </c>
-      <c r="T9" s="10" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="U9" s="10" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="V9" s="10" t="n">
         <v>0</v>
       </c>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
       <c r="ALO9" s="0"/>
       <c r="ALP9" s="0"/>
       <c r="ALQ9" s="0"/>
@@ -18041,69 +17918,51 @@
       <c r="A10" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>1539</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="21" t="n">
-        <v>0.163115763546798</v>
-      </c>
-      <c r="F10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="21" t="n">
-        <v>0.196428571428571</v>
+      <c r="D10" s="20" t="n">
+        <v>0.0211480362537764</v>
+      </c>
+      <c r="E10" s="20" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="F10" s="20" t="n">
+        <v>0.0353982300884956</v>
+      </c>
+      <c r="G10" s="20" t="n">
+        <v>0.0277777777777778</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="21" t="n">
-        <v>0.196428571428571</v>
+        <v>0</v>
       </c>
       <c r="J10" s="21" t="n">
-        <v>0.0437138900826052</v>
+        <v>0.2286</v>
       </c>
       <c r="K10" s="21" t="n">
-        <v>0.0357142857142857</v>
+        <v>0.2632</v>
       </c>
       <c r="L10" s="21" t="n">
-        <v>0.0827733966363563</v>
+        <v>0.8</v>
       </c>
       <c r="M10" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="21" t="n">
-        <v>0.0827733966363563</v>
+        <v>0.8</v>
       </c>
       <c r="O10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="21" t="n">
-        <v>0.0899653979238754</v>
-      </c>
-      <c r="Q10" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="10" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="S10" s="10" t="n">
-        <v>0.118</v>
-      </c>
-      <c r="T10" s="10" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="U10" s="10" t="n">
-        <v>0.684</v>
-      </c>
-      <c r="V10" s="22" t="n">
-        <v>0.93996170212766</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="V10" s="23"/>
       <c r="ALO10" s="0"/>
       <c r="ALP10" s="0"/>
       <c r="ALQ10" s="0"/>
@@ -18131,69 +17990,51 @@
       <c r="A11" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>1544</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D11" s="21" t="n">
-        <v>0.000174200865291721</v>
-      </c>
-      <c r="E11" s="21" t="n">
-        <v>0.051928321058064</v>
-      </c>
-      <c r="F11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="21" t="n">
-        <v>0.0724432830585934</v>
+      <c r="B11" s="19" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D11" s="20" t="n">
+        <v>0.00575373993095512</v>
+      </c>
+      <c r="E11" s="20" t="n">
+        <v>0.0102272727272727</v>
+      </c>
+      <c r="F11" s="20" t="n">
+        <v>0.0270377446915895</v>
+      </c>
+      <c r="G11" s="20" t="n">
+        <v>0.0410228210063239</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>0</v>
+        <v>0.018232</v>
       </c>
       <c r="I11" s="21" t="n">
-        <v>0.0722050743877978</v>
+        <v>0.039413</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>0.152602175830638</v>
+        <v>0.609</v>
       </c>
       <c r="K11" s="21" t="n">
-        <v>0.0971088670632176</v>
+        <v>0.6646</v>
       </c>
       <c r="L11" s="21" t="n">
-        <v>0.178713858424726</v>
+        <v>0.0008</v>
       </c>
       <c r="M11" s="21" t="n">
-        <v>0.0358417820933885</v>
+        <v>0.0019</v>
       </c>
       <c r="N11" s="21" t="n">
-        <v>0.178713858424726</v>
+        <v>0.8473</v>
       </c>
       <c r="O11" s="21" t="n">
-        <v>0.0359845780379837</v>
-      </c>
-      <c r="P11" s="21" t="n">
-        <v>0.178589232303091</v>
-      </c>
-      <c r="Q11" s="21" t="n">
-        <v>0.0391615063220045</v>
-      </c>
-      <c r="R11" s="10" t="n">
-        <v>0.288</v>
-      </c>
-      <c r="S11" s="10" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T11" s="10" t="n">
-        <v>0.009</v>
-      </c>
-      <c r="U11" s="10" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="V11" s="22" t="n">
-        <v>0.92249756097561</v>
-      </c>
+        <v>0.9807</v>
+      </c>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="V11" s="23"/>
       <c r="ALO11" s="0"/>
       <c r="ALP11" s="0"/>
       <c r="ALQ11" s="0"/>
@@ -18221,69 +18062,51 @@
       <c r="A12" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D12" s="21" t="n">
-        <v>0.0334599933019946</v>
-      </c>
-      <c r="E12" s="21" t="n">
-        <v>0.0291193471204669</v>
-      </c>
-      <c r="F12" s="21" t="n">
-        <v>0.067872177757416</v>
-      </c>
-      <c r="G12" s="21" t="n">
-        <v>0.0291193471204669</v>
+      <c r="B12" s="19" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D12" s="20" t="n">
+        <v>0.160837497025934</v>
+      </c>
+      <c r="E12" s="20" t="n">
+        <v>0.46908878719941</v>
+      </c>
+      <c r="F12" s="20" t="n">
+        <v>0.354865569015068</v>
+      </c>
+      <c r="G12" s="20" t="n">
+        <v>0.386236594757981</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>0.0677915997444698</v>
+        <v>0.721228</v>
       </c>
       <c r="I12" s="21" t="n">
-        <v>0.0291193471204669</v>
+        <v>0.755334</v>
       </c>
       <c r="J12" s="21" t="n">
-        <v>0.587933136280524</v>
+        <v>0.8157</v>
       </c>
       <c r="K12" s="21" t="n">
-        <v>0.526353468533171</v>
+        <v>0.7849</v>
       </c>
       <c r="L12" s="21" t="n">
-        <v>0.3807495984251</v>
+        <v>0.0245</v>
       </c>
       <c r="M12" s="21" t="n">
-        <v>0.55374983920072</v>
+        <v>0.7859</v>
       </c>
       <c r="N12" s="21" t="n">
-        <v>0.3807495984251</v>
+        <v>0.8182</v>
       </c>
       <c r="O12" s="21" t="n">
-        <v>0.553835598816517</v>
-      </c>
-      <c r="P12" s="21" t="n">
-        <v>0.403398225649707</v>
-      </c>
-      <c r="Q12" s="21" t="n">
-        <v>0.527846137716177</v>
-      </c>
-      <c r="R12" s="10" t="n">
-        <v>0.802</v>
-      </c>
-      <c r="S12" s="10" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="T12" s="10" t="n">
-        <v>0.814</v>
-      </c>
-      <c r="U12" s="10" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="V12" s="22" t="n">
-        <v>0.997497744360902</v>
-      </c>
+        <v>0.786</v>
+      </c>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="V12" s="23"/>
       <c r="ALO12" s="0"/>
       <c r="ALP12" s="0"/>
       <c r="ALQ12" s="0"/>
@@ -18311,69 +18134,51 @@
       <c r="A13" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D13" s="21" t="n">
-        <v>0.628033319248895</v>
-      </c>
-      <c r="E13" s="21" t="n">
-        <v>0.104923798358734</v>
-      </c>
-      <c r="F13" s="21" t="n">
-        <v>0.634930085351499</v>
-      </c>
-      <c r="G13" s="21" t="n">
-        <v>0.0789652825051055</v>
+      <c r="B13" s="19" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D13" s="20" t="n">
+        <v>0.211375554659137</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0.170187085093543</v>
+      </c>
+      <c r="F13" s="20" t="n">
+        <v>0.131130790190736</v>
+      </c>
+      <c r="G13" s="20" t="n">
+        <v>0.198774676650783</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>0.634930085351499</v>
+        <v>0.137255</v>
       </c>
       <c r="I13" s="21" t="n">
-        <v>0.0789652825051055</v>
+        <v>0.15737</v>
       </c>
       <c r="J13" s="21" t="n">
-        <v>0.702225948452141</v>
+        <v>0.9174</v>
       </c>
       <c r="K13" s="21" t="n">
-        <v>0.718640093786635</v>
+        <v>0.884</v>
       </c>
       <c r="L13" s="21" t="n">
-        <v>0.0767034640274077</v>
+        <v>0.9761</v>
       </c>
       <c r="M13" s="21" t="n">
-        <v>0.745603751465416</v>
+        <v>0.9835</v>
       </c>
       <c r="N13" s="21" t="n">
-        <v>0.0767034640274077</v>
+        <v>0.9761</v>
       </c>
       <c r="O13" s="21" t="n">
-        <v>0.745603751465416</v>
-      </c>
-      <c r="P13" s="21" t="n">
-        <v>0.0921793532429135</v>
-      </c>
-      <c r="Q13" s="21" t="n">
-        <v>0.713657678780774</v>
-      </c>
-      <c r="R13" s="10" t="n">
-        <v>0.787</v>
-      </c>
-      <c r="S13" s="10" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="T13" s="10" t="n">
-        <v>0.971</v>
-      </c>
-      <c r="U13" s="10" t="n">
-        <v>0.983</v>
-      </c>
-      <c r="V13" s="22" t="n">
-        <v>0.993497735279315</v>
-      </c>
+        <v>0.9835</v>
+      </c>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="V13" s="23"/>
       <c r="ALO13" s="0"/>
       <c r="ALP13" s="0"/>
       <c r="ALQ13" s="0"/>
@@ -18401,69 +18206,50 @@
       <c r="A14" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D14" s="21" t="n">
-        <v>0.82740032220014</v>
-      </c>
-      <c r="E14" s="21" t="n">
-        <v>0.689922480620155</v>
-      </c>
-      <c r="F14" s="21" t="n">
-        <v>0.846394984326019</v>
-      </c>
-      <c r="G14" s="21" t="n">
-        <v>0.434750066827052</v>
+      <c r="B14" s="19" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D14" s="20" t="n">
+        <v>0.503937007874016</v>
+      </c>
+      <c r="E14" s="20" t="n">
+        <v>0.548335974643423</v>
+      </c>
+      <c r="F14" s="20" t="n">
+        <v>0.617862371888726</v>
+      </c>
+      <c r="G14" s="20" t="n">
+        <v>0.702325581395349</v>
       </c>
       <c r="H14" s="21" t="n">
-        <v>0.844827586206896</v>
+        <v>0.276164</v>
       </c>
       <c r="I14" s="21" t="n">
-        <v>0.506589147286822</v>
+        <v>0.24635</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>0.838557993730407</v>
+        <v>0.807</v>
       </c>
       <c r="K14" s="21" t="n">
-        <v>0.908045977011494</v>
+        <v>0.8571</v>
       </c>
       <c r="L14" s="21" t="n">
-        <v>0</v>
+        <v>0.9982</v>
       </c>
       <c r="M14" s="21" t="n">
-        <v>0.32874420998456</v>
+        <v>0.9865</v>
       </c>
       <c r="N14" s="21" t="n">
-        <v>0</v>
+        <v>0.9982</v>
       </c>
       <c r="O14" s="21" t="n">
-        <v>0.361082518442271</v>
-      </c>
-      <c r="P14" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="21" t="n">
-        <v>0.00554022988505747</v>
-      </c>
-      <c r="R14" s="10" t="n">
-        <v>0.893</v>
-      </c>
-      <c r="S14" s="10" t="n">
-        <v>0.898</v>
-      </c>
-      <c r="T14" s="10" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="U14" s="10" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="V14" s="10" t="n">
-        <v>0.516036832412523</v>
-      </c>
+        <v>0.9865</v>
+      </c>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
       <c r="ALO14" s="0"/>
       <c r="ALP14" s="0"/>
       <c r="ALQ14" s="0"/>
@@ -18491,69 +18277,50 @@
       <c r="A15" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D15" s="21" t="n">
-        <v>0.710144927536232</v>
-      </c>
-      <c r="E15" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="21" t="n">
-        <v>0.678108314263921</v>
-      </c>
-      <c r="G15" s="21" t="n">
-        <v>0</v>
+      <c r="B15" s="19" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D15" s="20" t="n">
+        <v>0.16663861302811</v>
+      </c>
+      <c r="E15" s="20" t="n">
+        <v>0.204833141542002</v>
+      </c>
+      <c r="F15" s="20" t="n">
+        <v>0.196954314720812</v>
+      </c>
+      <c r="G15" s="20" t="n">
+        <v>0.172248803827751</v>
       </c>
       <c r="H15" s="21" t="n">
-        <v>0.681159420289855</v>
+        <v>0.108151</v>
       </c>
       <c r="I15" s="21" t="n">
-        <v>0</v>
+        <v>0.131527</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.113653699466056</v>
+        <v>0.913</v>
       </c>
       <c r="K15" s="21" t="n">
-        <v>0.422270205446264</v>
+        <v>0.9142</v>
       </c>
       <c r="L15" s="21" t="n">
-        <v>0.0450038138825324</v>
+        <v>0.9697</v>
       </c>
       <c r="M15" s="21" t="n">
-        <v>0.652310563950536</v>
+        <v>0.9924</v>
       </c>
       <c r="N15" s="21" t="n">
-        <v>0.045766590389016</v>
+        <v>0.9697</v>
       </c>
       <c r="O15" s="21" t="n">
-        <v>0.652310563950536</v>
-      </c>
-      <c r="P15" s="21" t="n">
-        <v>0.0442410373760488</v>
-      </c>
-      <c r="Q15" s="21" t="n">
-        <v>0.657386348661516</v>
-      </c>
-      <c r="R15" s="10" t="n">
-        <v>0.493</v>
-      </c>
-      <c r="S15" s="10" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="T15" s="10" t="n">
-        <v>0.952</v>
-      </c>
-      <c r="U15" s="10" t="n">
-        <v>0.945</v>
-      </c>
-      <c r="V15" s="10" t="n">
-        <v>0.527412523020258</v>
-      </c>
+        <v>0.9924</v>
+      </c>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
       <c r="ALO15" s="0"/>
       <c r="ALP15" s="0"/>
       <c r="ALQ15" s="0"/>
@@ -18578,91 +18345,70 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="10" t="n">
+      <c r="A16" s="25" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="21" t="n">
         <f aca="false">AVERAGE(D3:D15)</f>
-        <v>0.27723462318913</v>
-      </c>
-      <c r="E16" s="10" t="n">
+        <v>0.211033082476359</v>
+      </c>
+      <c r="E16" s="21" t="n">
         <f aca="false">AVERAGE(E3:E15)</f>
-        <v>0.219055198881004</v>
-      </c>
-      <c r="F16" s="10" t="n">
+        <v>0.252825974539862</v>
+      </c>
+      <c r="F16" s="21" t="n">
         <f aca="false">AVERAGE(F3:F15)</f>
-        <v>0.321549655974168</v>
-      </c>
-      <c r="G16" s="10" t="n">
+        <v>0.180334167055574</v>
+      </c>
+      <c r="G16" s="21" t="n">
         <f aca="false">AVERAGE(G3:G15)</f>
-        <v>0.202354847633602</v>
-      </c>
-      <c r="H16" s="10" t="n">
+        <v>0.219521923441821</v>
+      </c>
+      <c r="H16" s="21" t="n">
         <f aca="false">AVERAGE(H3:H15)</f>
-        <v>0.321698439787374</v>
-      </c>
-      <c r="I16" s="10" t="n">
+        <v>0.195987153846154</v>
+      </c>
+      <c r="I16" s="21" t="n">
         <f aca="false">AVERAGE(I3:I15)</f>
-        <v>0.208307730619122</v>
-      </c>
-      <c r="J16" s="10" t="n">
+        <v>0.234096</v>
+      </c>
+      <c r="J16" s="21" t="n">
         <f aca="false">AVERAGE(J3:J15)</f>
-        <v>0.38279855286588</v>
-      </c>
-      <c r="K16" s="10" t="n">
+        <v>0.818253846153846</v>
+      </c>
+      <c r="K16" s="21" t="n">
         <f aca="false">AVERAGE(K3:K15)</f>
-        <v>0.443284776613872</v>
-      </c>
-      <c r="L16" s="10" t="n">
+        <v>0.809661538461539</v>
+      </c>
+      <c r="L16" s="21" t="n">
         <f aca="false">AVERAGE(L3:L15)</f>
-        <v>0.207196209030046</v>
-      </c>
-      <c r="M16" s="10" t="n">
+        <v>0.5956</v>
+      </c>
+      <c r="M16" s="21" t="n">
         <f aca="false">AVERAGE(M3:M15)</f>
-        <v>0.338422725718618</v>
-      </c>
-      <c r="N16" s="10" t="n">
+        <v>0.670130769230769</v>
+      </c>
+      <c r="N16" s="21" t="n">
         <f aca="false">AVERAGE(N3:N15)</f>
-        <v>0.207030014508598</v>
-      </c>
-      <c r="O16" s="10" t="n">
+        <v>0.944546153846154</v>
+      </c>
+      <c r="O16" s="21" t="n">
         <f aca="false">AVERAGE(O3:O15)</f>
-        <v>0.340964139439214</v>
-      </c>
-      <c r="P16" s="10" t="n">
-        <f aca="false">AVERAGE(P3:P15)</f>
-        <v>0.241731301007219</v>
-      </c>
-      <c r="Q16" s="10" t="n">
-        <f aca="false">AVERAGE(Q3:Q15)</f>
-        <v>0.299440011747256</v>
-      </c>
-      <c r="R16" s="10" t="n">
-        <f aca="false">AVERAGE(R3:R15)</f>
-        <v>0.546230769230769</v>
-      </c>
-      <c r="S16" s="10" t="n">
-        <f aca="false">AVERAGE(S3:S15)</f>
-        <v>0.532769230769231</v>
-      </c>
-      <c r="T16" s="10" t="n">
-        <f aca="false">AVERAGE(T3:T15)</f>
-        <v>0.707153846153846</v>
-      </c>
-      <c r="U16" s="10" t="n">
-        <f aca="false">AVERAGE(U3:U15)</f>
-        <v>0.714</v>
-      </c>
-      <c r="V16" s="10" t="n">
-        <f aca="false">AVERAGE(V3:V15)</f>
-        <v>0.721462642616632</v>
-      </c>
+        <v>0.890907692307692</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
       <c r="W16" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -18673,6 +18419,7 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="A16:C16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -18692,228 +18439,228 @@
   </sheetPr>
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D93" activeCellId="0" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="25" width="10.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="26" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C1" s="26" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>1551</v>
+      <c r="A1" s="27" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D2" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D2" s="26" t="n">
         <v>0.289994</v>
       </c>
-      <c r="E2" s="25" t="n">
+      <c r="E2" s="26" t="n">
         <f aca="false">AVERAGE(D2:D14)</f>
         <v>0.195987153846154</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D3" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D3" s="26" t="n">
         <v>0.279282</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D4" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D4" s="26" t="n">
         <v>0.087769</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D5" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D5" s="26" t="n">
         <v>0.057665</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D6" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D6" s="26" t="n">
         <v>0.219754</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>622</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D7" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D7" s="26" t="n">
         <v>0.284866</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D8" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D8" s="26" t="n">
         <v>0.067473</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>863</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D9" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D9" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>947</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D10" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D10" s="26" t="n">
         <v>0.018232</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D11" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D11" s="26" t="n">
         <v>0.721228</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D12" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D12" s="26" t="n">
         <v>0.137255</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>1303</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D13" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D13" s="26" t="n">
         <v>0.276164</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>1400</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D14" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D14" s="26" t="n">
         <v>0.108151</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -18923,12 +18670,12 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D15" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D15" s="26" t="n">
         <v>0.34613</v>
       </c>
-      <c r="E15" s="25" t="n">
+      <c r="E15" s="26" t="n">
         <f aca="false">AVERAGE(D15:D27)</f>
         <v>0.234096</v>
       </c>
@@ -18941,12 +18688,12 @@
         <v>134</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D16" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D16" s="26" t="n">
         <v>0.371508</v>
       </c>
-      <c r="E16" s="25"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -18956,12 +18703,12 @@
         <v>250</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D17" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D17" s="26" t="n">
         <v>0.113669</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -18971,12 +18718,12 @@
         <v>371</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D18" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D18" s="26" t="n">
         <v>0.077484</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -18986,12 +18733,12 @@
         <v>501</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D19" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D19" s="26" t="n">
         <v>0.308176</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -19001,12 +18748,12 @@
         <v>622</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D20" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D20" s="26" t="n">
         <v>0.386656</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -19016,12 +18763,12 @@
         <v>745</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D21" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D21" s="26" t="n">
         <v>0.109631</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -19031,12 +18778,12 @@
         <v>863</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D22" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D22" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -19046,12 +18793,12 @@
         <v>947</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D23" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D23" s="26" t="n">
         <v>0.039413</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -19061,12 +18808,12 @@
         <v>1070</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D24" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D24" s="26" t="n">
         <v>0.755334</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
@@ -19076,12 +18823,12 @@
         <v>1188</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D25" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D25" s="26" t="n">
         <v>0.15737</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -19091,12 +18838,12 @@
         <v>1303</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D26" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D26" s="26" t="n">
         <v>0.24635</v>
       </c>
-      <c r="E26" s="25"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
@@ -19106,210 +18853,210 @@
         <v>1400</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D27" s="25" t="n">
+        <v>1548</v>
+      </c>
+      <c r="D27" s="26" t="n">
         <v>0.131527</v>
       </c>
-      <c r="E27" s="25"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D28" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D28" s="26" t="n">
         <v>0.9748</v>
       </c>
-      <c r="E28" s="25" t="n">
+      <c r="E28" s="26" t="n">
         <f aca="false">AVERAGE(D28:D40)</f>
         <v>0.818253846153846</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D29" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D29" s="26" t="n">
         <v>0.9882</v>
       </c>
-      <c r="E29" s="25"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D30" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D30" s="26" t="n">
         <v>0.8618</v>
       </c>
-      <c r="E30" s="25"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D31" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D31" s="26" t="n">
         <v>0.8571</v>
       </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D32" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D32" s="26" t="n">
         <v>0.8502</v>
       </c>
-      <c r="E32" s="25"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>622</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D33" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D33" s="26" t="n">
         <v>0.9594</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D34" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D34" s="26" t="n">
         <v>0.8551</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>863</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D35" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D35" s="26" t="n">
         <v>0.2286</v>
       </c>
-      <c r="E35" s="25"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>947</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D36" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D36" s="26" t="n">
         <v>0.609</v>
       </c>
-      <c r="E36" s="25"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D37" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D37" s="26" t="n">
         <v>0.8157</v>
       </c>
-      <c r="E37" s="25"/>
+      <c r="E37" s="26"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D38" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D38" s="26" t="n">
         <v>0.9174</v>
       </c>
-      <c r="E38" s="25"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>1303</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D39" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D39" s="26" t="n">
         <v>0.807</v>
       </c>
-      <c r="E39" s="25"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>1400</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D40" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D40" s="26" t="n">
         <v>0.913</v>
       </c>
-      <c r="E40" s="25"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
@@ -19319,12 +19066,12 @@
         <v>11</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D41" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D41" s="26" t="n">
         <v>0.9622</v>
       </c>
-      <c r="E41" s="25" t="n">
+      <c r="E41" s="26" t="n">
         <f aca="false">AVERAGE(D41:D53)</f>
         <v>0.809661538461539</v>
       </c>
@@ -19337,12 +19084,12 @@
         <v>134</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D42" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D42" s="26" t="n">
         <v>0.9682</v>
       </c>
-      <c r="E42" s="25"/>
+      <c r="E42" s="26"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
@@ -19352,12 +19099,12 @@
         <v>250</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D43" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D43" s="26" t="n">
         <v>0.8025</v>
       </c>
-      <c r="E43" s="25"/>
+      <c r="E43" s="26"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
@@ -19367,12 +19114,12 @@
         <v>371</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D44" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D44" s="26" t="n">
         <v>0.7998</v>
       </c>
-      <c r="E44" s="25"/>
+      <c r="E44" s="26"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
@@ -19382,12 +19129,12 @@
         <v>501</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D45" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D45" s="26" t="n">
         <v>0.8237</v>
       </c>
-      <c r="E45" s="25"/>
+      <c r="E45" s="26"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
@@ -19397,12 +19144,12 @@
         <v>622</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D46" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D46" s="26" t="n">
         <v>0.9692</v>
       </c>
-      <c r="E46" s="25"/>
+      <c r="E46" s="26"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
@@ -19412,12 +19159,12 @@
         <v>745</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D47" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D47" s="26" t="n">
         <v>0.832</v>
       </c>
-      <c r="E47" s="25"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
@@ -19427,12 +19174,12 @@
         <v>863</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D48" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D48" s="26" t="n">
         <v>0.2632</v>
       </c>
-      <c r="E48" s="25"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
@@ -19442,12 +19189,12 @@
         <v>947</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D49" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D49" s="26" t="n">
         <v>0.6646</v>
       </c>
-      <c r="E49" s="25"/>
+      <c r="E49" s="26"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
@@ -19457,12 +19204,12 @@
         <v>1070</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D50" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D50" s="26" t="n">
         <v>0.7849</v>
       </c>
-      <c r="E50" s="25"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
@@ -19472,12 +19219,12 @@
         <v>1188</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D51" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D51" s="26" t="n">
         <v>0.884</v>
       </c>
-      <c r="E51" s="25"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
@@ -19487,12 +19234,12 @@
         <v>1303</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D52" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D52" s="26" t="n">
         <v>0.8571</v>
       </c>
-      <c r="E52" s="25"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
@@ -19502,210 +19249,210 @@
         <v>1400</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D53" s="25" t="n">
+        <v>1549</v>
+      </c>
+      <c r="D53" s="26" t="n">
         <v>0.9142</v>
       </c>
-      <c r="E53" s="25"/>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D54" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D54" s="26" t="n">
         <v>0.9937</v>
       </c>
-      <c r="E54" s="25" t="n">
+      <c r="E54" s="26" t="n">
         <f aca="false">AVERAGE(D54:D66)</f>
         <v>0.5956</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D55" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D55" s="26" t="n">
         <v>0.9923</v>
       </c>
-      <c r="E55" s="25"/>
+      <c r="E55" s="26"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D56" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D56" s="26" t="n">
         <v>0.0003</v>
       </c>
-      <c r="E56" s="25"/>
+      <c r="E56" s="26"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D57" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D57" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E57" s="25"/>
+      <c r="E57" s="26"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D58" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D58" s="26" t="n">
         <v>0.9828</v>
       </c>
-      <c r="E58" s="25"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>622</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D59" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D59" s="26" t="n">
         <v>0.0011</v>
       </c>
-      <c r="E59" s="25"/>
+      <c r="E59" s="26"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D60" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D60" s="26" t="n">
         <v>0.0033</v>
       </c>
-      <c r="E60" s="25"/>
+      <c r="E60" s="26"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>863</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D61" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D61" s="26" t="n">
         <v>0.8</v>
       </c>
-      <c r="E61" s="25"/>
+      <c r="E61" s="26"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>947</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D62" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D62" s="26" t="n">
         <v>0.0008</v>
       </c>
-      <c r="E62" s="25"/>
+      <c r="E62" s="26"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D63" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D63" s="26" t="n">
         <v>0.0245</v>
       </c>
-      <c r="E63" s="25"/>
+      <c r="E63" s="26"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D64" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D64" s="26" t="n">
         <v>0.9761</v>
       </c>
-      <c r="E64" s="25"/>
+      <c r="E64" s="26"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>1303</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D65" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D65" s="26" t="n">
         <v>0.9982</v>
       </c>
-      <c r="E65" s="25"/>
+      <c r="E65" s="26"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1400</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D66" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D66" s="26" t="n">
         <v>0.9697</v>
       </c>
-      <c r="E66" s="25"/>
+      <c r="E66" s="26"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
@@ -19715,12 +19462,12 @@
         <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D67" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D67" s="26" t="n">
         <v>0.9993</v>
       </c>
-      <c r="E67" s="25" t="n">
+      <c r="E67" s="26" t="n">
         <f aca="false">AVERAGE(D67:D79)</f>
         <v>0.670130769230769</v>
       </c>
@@ -19733,12 +19480,12 @@
         <v>134</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D68" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D68" s="26" t="n">
         <v>0.9983</v>
       </c>
-      <c r="E68" s="25"/>
+      <c r="E68" s="26"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
@@ -19748,12 +19495,12 @@
         <v>250</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D69" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D69" s="26" t="n">
         <v>0.0006</v>
       </c>
-      <c r="E69" s="25"/>
+      <c r="E69" s="26"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
@@ -19763,12 +19510,12 @@
         <v>371</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D70" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D70" s="26" t="n">
         <v>0.9638</v>
       </c>
-      <c r="E70" s="25"/>
+      <c r="E70" s="26"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
@@ -19778,12 +19525,12 @@
         <v>501</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D71" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D71" s="26" t="n">
         <v>0.9973</v>
       </c>
-      <c r="E71" s="25"/>
+      <c r="E71" s="26"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
@@ -19793,12 +19540,12 @@
         <v>622</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D72" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D72" s="26" t="n">
         <v>0.0022</v>
       </c>
-      <c r="E72" s="25"/>
+      <c r="E72" s="26"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
@@ -19808,12 +19555,12 @@
         <v>745</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D73" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D73" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E73" s="25"/>
+      <c r="E73" s="26"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
@@ -19823,12 +19570,12 @@
         <v>863</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D74" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D74" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E74" s="25"/>
+      <c r="E74" s="26"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
@@ -19838,12 +19585,12 @@
         <v>947</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D75" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D75" s="26" t="n">
         <v>0.0019</v>
       </c>
-      <c r="E75" s="25"/>
+      <c r="E75" s="26"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
@@ -19853,12 +19600,12 @@
         <v>1070</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D76" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D76" s="26" t="n">
         <v>0.7859</v>
       </c>
-      <c r="E76" s="25"/>
+      <c r="E76" s="26"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
@@ -19868,12 +19615,12 @@
         <v>1188</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D77" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D77" s="26" t="n">
         <v>0.9835</v>
       </c>
-      <c r="E77" s="25"/>
+      <c r="E77" s="26"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
@@ -19883,12 +19630,12 @@
         <v>1303</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D78" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D78" s="26" t="n">
         <v>0.9865</v>
       </c>
-      <c r="E78" s="25"/>
+      <c r="E78" s="26"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
@@ -19898,210 +19645,210 @@
         <v>1400</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>1554</v>
-      </c>
-      <c r="D79" s="25" t="n">
+        <v>1550</v>
+      </c>
+      <c r="D79" s="26" t="n">
         <v>0.9924</v>
       </c>
-      <c r="E79" s="25"/>
+      <c r="E79" s="26"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D80" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D80" s="26" t="n">
         <v>0.9937</v>
       </c>
-      <c r="E80" s="25" t="n">
+      <c r="E80" s="26" t="n">
         <f aca="false">AVERAGE(D80:D92)</f>
         <v>0.944546153846154</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D81" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D81" s="26" t="n">
         <v>0.9923</v>
       </c>
-      <c r="E81" s="25"/>
+      <c r="E81" s="26"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D82" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D82" s="26" t="n">
         <v>0.9469</v>
       </c>
-      <c r="E82" s="25"/>
+      <c r="E82" s="26"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D83" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D83" s="26" t="n">
         <v>0.9987</v>
       </c>
-      <c r="E83" s="25"/>
+      <c r="E83" s="26"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>501</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D84" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D84" s="26" t="n">
         <v>0.9828</v>
       </c>
-      <c r="E84" s="25"/>
+      <c r="E84" s="26"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>622</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D85" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D85" s="26" t="n">
         <v>0.9916</v>
       </c>
-      <c r="E85" s="25"/>
+      <c r="E85" s="26"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>745</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D86" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D86" s="26" t="n">
         <v>0.9636</v>
       </c>
-      <c r="E86" s="25"/>
+      <c r="E86" s="26"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>863</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D87" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D87" s="26" t="n">
         <v>0.8</v>
       </c>
-      <c r="E87" s="25"/>
+      <c r="E87" s="26"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>947</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D88" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D88" s="26" t="n">
         <v>0.8473</v>
       </c>
-      <c r="E88" s="25"/>
+      <c r="E88" s="26"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>1070</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D89" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D89" s="26" t="n">
         <v>0.8182</v>
       </c>
-      <c r="E89" s="25"/>
+      <c r="E89" s="26"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>1188</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D90" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D90" s="26" t="n">
         <v>0.9761</v>
       </c>
-      <c r="E90" s="25"/>
+      <c r="E90" s="26"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>1303</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D91" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D91" s="26" t="n">
         <v>0.9982</v>
       </c>
-      <c r="E91" s="25"/>
+      <c r="E91" s="26"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>1400</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D92" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D92" s="26" t="n">
         <v>0.9697</v>
       </c>
-      <c r="E92" s="25"/>
+      <c r="E92" s="26"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
@@ -20111,12 +19858,12 @@
         <v>11</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D93" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D93" s="26" t="n">
         <v>0.9993</v>
       </c>
-      <c r="E93" s="25" t="n">
+      <c r="E93" s="26" t="n">
         <f aca="false">AVERAGE(D93:D105)</f>
         <v>0.890907692307692</v>
       </c>
@@ -20129,12 +19876,12 @@
         <v>134</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D94" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D94" s="26" t="n">
         <v>0.9983</v>
       </c>
-      <c r="E94" s="25"/>
+      <c r="E94" s="26"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
@@ -20144,12 +19891,12 @@
         <v>250</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D95" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D95" s="26" t="n">
         <v>0.9054</v>
       </c>
-      <c r="E95" s="25"/>
+      <c r="E95" s="26"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
@@ -20159,12 +19906,12 @@
         <v>371</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D96" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D96" s="26" t="n">
         <v>0.9638</v>
       </c>
-      <c r="E96" s="25"/>
+      <c r="E96" s="26"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
@@ -20174,12 +19921,12 @@
         <v>501</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D97" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D97" s="26" t="n">
         <v>0.9973</v>
       </c>
-      <c r="E97" s="25"/>
+      <c r="E97" s="26"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
@@ -20189,12 +19936,12 @@
         <v>622</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D98" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D98" s="26" t="n">
         <v>0.9886</v>
       </c>
-      <c r="E98" s="25"/>
+      <c r="E98" s="26"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
@@ -20204,12 +19951,12 @@
         <v>745</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D99" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D99" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="E99" s="25"/>
+      <c r="E99" s="26"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
@@ -20219,12 +19966,12 @@
         <v>863</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D100" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D100" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="E100" s="25"/>
+      <c r="E100" s="26"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
@@ -20234,12 +19981,12 @@
         <v>947</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D101" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D101" s="26" t="n">
         <v>0.9807</v>
       </c>
-      <c r="E101" s="25"/>
+      <c r="E101" s="26"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
@@ -20249,12 +19996,12 @@
         <v>1070</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D102" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D102" s="26" t="n">
         <v>0.786</v>
       </c>
-      <c r="E102" s="25"/>
+      <c r="E102" s="26"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
@@ -20264,12 +20011,12 @@
         <v>1188</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D103" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D103" s="26" t="n">
         <v>0.9835</v>
       </c>
-      <c r="E103" s="25"/>
+      <c r="E103" s="26"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
@@ -20279,12 +20026,12 @@
         <v>1303</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D104" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D104" s="26" t="n">
         <v>0.9865</v>
       </c>
-      <c r="E104" s="25"/>
+      <c r="E104" s="26"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
@@ -20294,12 +20041,12 @@
         <v>1400</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>1555</v>
-      </c>
-      <c r="D105" s="25" t="n">
+        <v>1551</v>
+      </c>
+      <c r="D105" s="26" t="n">
         <v>0.9924</v>
       </c>
-      <c r="E105" s="25"/>
+      <c r="E105" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D105"/>
